--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Documents\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -51,51 +51,12 @@
     <t>c</t>
   </si>
   <si>
-    <t>En tant que administrateur, je souhaite pouvoir avoir des niveaux de droits d'accès différents afin de pouvoir avoir des droits sur différentes section du site.</t>
-  </si>
-  <si>
-    <t>Un administrateur qui n'a pas le droit d'accès ne peut modifier une page.</t>
-  </si>
-  <si>
     <t>La connection se fait avec un email et un mot de passe.</t>
   </si>
   <si>
     <t>Il devient impossible d'effectuer une connexion si l'administrateur est déjà connecté.</t>
   </si>
   <si>
-    <t>En tant que super administrateur, je souhaite pourvoir inscrire un nouvel administrateur afin de pouvoir donné accès à un nouveau membre.</t>
-  </si>
-  <si>
-    <t>Seul le super administrateur peut effectué des inscriptions.</t>
-  </si>
-  <si>
-    <t>En tant que administrateur, je souhaire pouvoir modifier les sections du sites auquel j'ai accès afin de maintenir le site à jour.</t>
-  </si>
-  <si>
-    <t>L'administrateur ne peut modifier une section auquel il n'a pas accès.</t>
-  </si>
-  <si>
-    <t>En tant que super administrateur, je souhaite recevoir des notifications lorsque les administrateur font des changements au site afin de valider ceux-ci.</t>
-  </si>
-  <si>
-    <t>La notification indique la section qui a été modifié ainsi que l'admin qui l'a effectué.</t>
-  </si>
-  <si>
-    <t>En tant que super administrateur, je souhaite pourvoir changer les droits des administrateurs afin de choisir les accès que ceux-ci disposent.</t>
-  </si>
-  <si>
-    <t>Seul le super administrateur peut changer les droits des administrateurs.</t>
-  </si>
-  <si>
-    <t>En tant que super administrateur, je souhaite pouvoir céder ma place à un autre administrateur afin d'octroyer les droits de super admin à un autre administrateur</t>
-  </si>
-  <si>
-    <t>Seul le super administrateur peut octroyer les droits de super admin</t>
-  </si>
-  <si>
-    <t>Il ne peut y avoir qu'un seul super admin à la fois.</t>
-  </si>
-  <si>
     <t>En tant que visiteur, je souhaite pouvoir effectuer un don afin de financer les paroisses.</t>
   </si>
   <si>
@@ -105,15 +66,6 @@
     <t>Le bouton de donation redirige vers PayPal.</t>
   </si>
   <si>
-    <t>En tant que visiteur, je souhaite pouvoir réserver des articles afin de pouvoir les récupérer lorsque je vais me rendre à la paroisse.</t>
-  </si>
-  <si>
-    <t>Il y a une notion de disponibilité des articles.</t>
-  </si>
-  <si>
-    <t>La réservation a une duré limite.</t>
-  </si>
-  <si>
     <t>En tant que visiteur, je souhaite pouvoir remplir des formulaires afin de m'inscrire aux différentes communautés religieuse</t>
   </si>
   <si>
@@ -151,6 +103,12 @@
   </si>
   <si>
     <t>Le site web a un template pour la page d'accueil avec le menu</t>
+  </si>
+  <si>
+    <t>En tant que administrateur, je souhaire pouvoir modifier les sections du sites afin de maintenir le site à jour.</t>
+  </si>
+  <si>
+    <t>Seul les administrateur peuvent modifier les section du site</t>
   </si>
 </sst>
 </file>
@@ -468,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +460,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -511,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,12 +477,12 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -533,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,12 +507,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -563,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,21 +529,21 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,21 +551,21 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,81 +573,75 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
       </c>
       <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>5</v>
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,10 +652,10 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -711,149 +663,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -863,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +707,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -906,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,12 +724,12 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -928,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,12 +754,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -958,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,29 +776,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Documents\Project-ESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F0412-9976-43CD-AA9F-7A25181C542B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -109,12 +110,24 @@
   </si>
   <si>
     <t>Seul les administrateur peuvent modifier les section du site</t>
+  </si>
+  <si>
+    <t>Ajustemtent</t>
+  </si>
+  <si>
+    <t>Précisions</t>
+  </si>
+  <si>
+    <t>Encryption des données</t>
+  </si>
+  <si>
+    <t>Selon ce qui est dans la bd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,12 +137,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,8 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +452,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -672,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,9 +713,11 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +733,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -719,7 +754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -727,55 +762,61 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F0412-9976-43CD-AA9F-7A25181C542B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC153C-30CF-46E1-85C9-E5A34B1A74CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +123,36 @@
   </si>
   <si>
     <t>Selon ce qui est dans la bd</t>
+  </si>
+  <si>
+    <t>Critères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les informations du bénévole dans le formulaire sont encryptés. </t>
+  </si>
+  <si>
+    <t>Les champs ne sont pas tous obligatoires</t>
+  </si>
+  <si>
+    <t>Seul les administrateur peuvent modifier les sections du site</t>
+  </si>
+  <si>
+    <t>Les informations du sites sont stockées dans la base de donnée</t>
+  </si>
+  <si>
+    <t>La page d'accueil contient des redirections vers d'autres sections du site</t>
+  </si>
+  <si>
+    <t>En tant que visiteur, je souhaite pouvoir consulter le site sur de multiples appareils</t>
+  </si>
+  <si>
+    <t>Le site web est responsive</t>
+  </si>
+  <si>
+    <t>Les éléments cliquables sont suffisament gros pour un appareil mobile</t>
+  </si>
+  <si>
+    <t>La déconnexion est disponible seulement lorsqu'un admin est connecté.</t>
   </si>
 </sst>
 </file>
@@ -453,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -508,91 +539,85 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,21 +633,21 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,59 +663,135 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
+      <c r="B18" t="s">
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -702,11 +803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -823,4 +924,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41197A5-76FD-4FFD-95E0-C5A4F7A4F0A9}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CC153C-30CF-46E1-85C9-E5A34B1A74CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D11B21A-F5C4-403B-918C-9322961D9B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -113,18 +113,6 @@
     <t>Seul les administrateur peuvent modifier les section du site</t>
   </si>
   <si>
-    <t>Ajustemtent</t>
-  </si>
-  <si>
-    <t>Précisions</t>
-  </si>
-  <si>
-    <t>Encryption des données</t>
-  </si>
-  <si>
-    <t>Selon ce qui est dans la bd</t>
-  </si>
-  <si>
     <t>Critères</t>
   </si>
   <si>
@@ -153,6 +141,39 @@
   </si>
   <si>
     <t>La déconnexion est disponible seulement lorsqu'un admin est connecté.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Les nouvelles rediriges vers d'autre sections du site</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Le calendrier des événements se modifie directement dans les pages des paroisses.</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Il y a 5 nouvelles d'affichées.</t>
+  </si>
+  <si>
+    <t>L'utilisateur est informé lorsqu'un champ obligatoire n'est pas rempli.</t>
+  </si>
+  <si>
+    <t>Seulement certains champs sont obligatoires (Nom, prénom, téléphone, email).</t>
+  </si>
+  <si>
+    <t>Il est possible d'ajouter et de modifier du contenu.</t>
+  </si>
+  <si>
+    <t>Dans la page de modification, il faut choisir la section du site à modifier.</t>
+  </si>
+  <si>
+    <t>Il y a un onglet modification dans le menu affiché seulement si l'admin est connecté.</t>
   </si>
 </sst>
 </file>
@@ -168,24 +189,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,10 +209,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +825,7 @@
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,14 +841,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -855,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -863,62 +864,72 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41197A5-76FD-4FFD-95E0-C5A4F7A4F0A9}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -983,41 +994,135 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proprio\Desktop\Eric\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D11B21A-F5C4-403B-918C-9322961D9B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96C169-BFA4-49AE-955D-908591ED714E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Les nouvelles sont groupés par paroisse.</t>
   </si>
   <si>
-    <t>Les nouvelles s'affiches durant une période spécifique.</t>
-  </si>
-  <si>
     <t>En tant que visiteur, je souhaite pouvoir m'inscire comme bénévole afin de  contribuer à la communauté.</t>
   </si>
   <si>
@@ -119,12 +116,6 @@
     <t xml:space="preserve">Les informations du bénévole dans le formulaire sont encryptés. </t>
   </si>
   <si>
-    <t>Les champs ne sont pas tous obligatoires</t>
-  </si>
-  <si>
-    <t>Seul les administrateur peuvent modifier les sections du site</t>
-  </si>
-  <si>
     <t>Les informations du sites sont stockées dans la base de donnée</t>
   </si>
   <si>
@@ -167,13 +158,40 @@
     <t>Seulement certains champs sont obligatoires (Nom, prénom, téléphone, email).</t>
   </si>
   <si>
-    <t>Il est possible d'ajouter et de modifier du contenu.</t>
-  </si>
-  <si>
     <t>Dans la page de modification, il faut choisir la section du site à modifier.</t>
   </si>
   <si>
     <t>Il y a un onglet modification dans le menu affiché seulement si l'admin est connecté.</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Il est possible d'ajouter et de modifier les pdf visible .</t>
+  </si>
+  <si>
+    <t>Il est possible d'ajouter et de modifier des nouvelles</t>
+  </si>
+  <si>
+    <t>Il est possible d'ajouter et de modifier les images et îcônes du site</t>
+  </si>
+  <si>
+    <t>Les nouvelles ont une date de parution</t>
+  </si>
+  <si>
+    <t>Les nouvelles ont une description globale</t>
+  </si>
+  <si>
+    <t>Les nouvelles ont une description sommaire</t>
+  </si>
+  <si>
+    <t>Il est possible de modifier les images et îcônes du site</t>
+  </si>
+  <si>
+    <t>Il y a 5 nouvelles d'affichées dans la page d'accueil.</t>
   </si>
 </sst>
 </file>
@@ -491,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -534,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,108 +658,96 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
+      <c r="B17" t="s">
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -752,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,37 +774,137 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
+      <c r="B27" t="s">
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +920,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -853,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -939,19 +1045,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41197A5-76FD-4FFD-95E0-C5A4F7A4F0A9}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -982,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,123 +1112,163 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proprio\Desktop\Eric\Project-ESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96C169-BFA4-49AE-955D-908591ED714E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95682C89-65BA-4D7F-AD88-F7B6C8976B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Il y a 5 nouvelles d'affichées dans la page d'accueil.</t>
+  </si>
+  <si>
+    <t>Les nouvelles sont groupés par communauté.</t>
+  </si>
+  <si>
+    <t>En tant que visiteur, je souhaite pouvoir me renseigner sur les communautés afin de me tenir au courant des nouveauté de celle-ci</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1054,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95682C89-65BA-4D7F-AD88-F7B6C8976B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803135F-0671-41E3-9376-D1734526B239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +212,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -230,13 +242,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,7 +536,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -926,7 +941,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1054,10 +1069,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1241,7 +1256,7 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1249,7 +1264,7 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1257,7 +1272,7 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1265,7 +1280,7 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1273,7 +1288,7 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803135F-0671-41E3-9376-D1734526B239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1526E2A-A601-437B-BEB7-7711D744C3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -188,23 +188,29 @@
     <t>Les nouvelles ont une description sommaire</t>
   </si>
   <si>
-    <t>Il est possible de modifier les images et îcônes du site</t>
-  </si>
-  <si>
     <t>Il y a 5 nouvelles d'affichées dans la page d'accueil.</t>
   </si>
   <si>
-    <t>Les nouvelles sont groupés par communauté.</t>
-  </si>
-  <si>
     <t>En tant que visiteur, je souhaite pouvoir me renseigner sur les communautés afin de me tenir au courant des nouveauté de celle-ci</t>
+  </si>
+  <si>
+    <t>Il est possible de modifier les images et icônes du site</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Il est possible de modifier le texte des pages</t>
+  </si>
+  <si>
+    <t>Les événements du calendrier se gère (ajout, modification, suppression) directement dans les pages des paroisses.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,25 +218,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,16 +236,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,7 +527,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -941,7 +932,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1069,10 +1060,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1141,7 +1132,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,7 +1156,7 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,38 +1168,38 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>30</v>
       </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
+      <c r="D12">
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -1216,7 +1207,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -1224,7 +1215,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
@@ -1232,7 +1223,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>52</v>
@@ -1240,10 +1231,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,7 +1247,7 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1264,7 +1255,7 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1272,7 +1263,7 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1280,7 +1271,7 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1288,7 +1279,7 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1526E2A-A601-437B-BEB7-7711D744C3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C198AF51-C3B5-489C-811F-B382AC0CC7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Le bouton de donation redirige vers PayPal.</t>
   </si>
   <si>
-    <t>En tant que visiteur, je souhaite pouvoir remplir des formulaires afin de m'inscrire aux différentes communautés religieuse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les informations du visiteurs dans les formulaires sont encryptés. </t>
   </si>
   <si>
@@ -204,6 +202,36 @@
   </si>
   <si>
     <t>Les événements du calendrier se gère (ajout, modification, suppression) directement dans les pages des paroisses.</t>
+  </si>
+  <si>
+    <t>Le refus de don sur PayPal ramène sur le site</t>
+  </si>
+  <si>
+    <t>Le formulaire pour enfant est accèssible par un bouton</t>
+  </si>
+  <si>
+    <t>Le formulaire pour enfant permet l'inscription au différents sacrements.</t>
+  </si>
+  <si>
+    <t>Le formulaire permet de choisir pour qu'elle l'enfant sera inscrit.</t>
+  </si>
+  <si>
+    <t>En tant que visiteur, je souhaite pouvoir remplir des formulaires afin de m'inscrire aux différentes communautés religieuse.</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je souhaite pouvoir consulter les formulaires qui ont été remplis par les usagers afin de prendre connaissance des informations des visiteurs.</t>
+  </si>
+  <si>
+    <t>Il y a une vu sommaire de tout les formulaires rempli (séparé par type de formulaire)</t>
+  </si>
+  <si>
+    <t>La sélection d'un formulaire amène a une vue détaillé.</t>
+  </si>
+  <si>
+    <t>La vue détailler montre les informations sous la même forme que le formulaire original.</t>
+  </si>
+  <si>
+    <t>Les textes sont facilements visibles sur les différents appareils.</t>
   </si>
 </sst>
 </file>
@@ -521,13 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -564,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,7 +698,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,47 +706,47 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,171 +780,249 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>30</v>
       </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>5</v>
+      <c r="D24">
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="C32">
         <v>25</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>35</v>
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
+      <c r="B38" t="s">
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +1038,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
@@ -971,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1059,11 +1165,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41197A5-76FD-4FFD-95E0-C5A4F7A4F0A9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1077,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1100,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,55 +1230,55 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1202,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,31 +1316,31 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,15 +1378,211 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D4A0C-D03F-4572-B056-77808255D18C}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="153.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project-ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C198AF51-C3B5-489C-811F-B382AC0CC7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF4BCB-31CC-4E83-88D6-A18D2F641943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E23" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D4A0C-D03F-4572-B056-77808255D18C}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -1577,12 +1577,50 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
